--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Epha4-Efnb1.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Epha4</t>
+  </si>
+  <si>
+    <t>Efnb1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Epha4</t>
-  </si>
-  <si>
-    <t>Efnb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="H2">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="I2">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="J2">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="N2">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="O2">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="P2">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="Q2">
-        <v>89.848396108359</v>
+        <v>72.172222914141</v>
       </c>
       <c r="R2">
-        <v>359.393584433436</v>
+        <v>288.688891656564</v>
       </c>
       <c r="S2">
-        <v>0.1919978232730616</v>
+        <v>0.336772021659607</v>
       </c>
       <c r="T2">
-        <v>0.126324312293234</v>
+        <v>0.2646515176552375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="H3">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="I3">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="J3">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>15.23399</v>
       </c>
       <c r="O3">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="P3">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="Q3">
-        <v>52.924686487815</v>
+        <v>35.136078236735</v>
       </c>
       <c r="R3">
-        <v>317.54811892689</v>
+        <v>210.81646942041</v>
       </c>
       <c r="S3">
-        <v>0.1130952253261684</v>
+        <v>0.1639529395547675</v>
       </c>
       <c r="T3">
-        <v>0.1116159260513429</v>
+        <v>0.1932630599628473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="H4">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="I4">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="J4">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="N4">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="O4">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="P4">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="Q4">
-        <v>2.757505128768</v>
+        <v>0.994909360746</v>
       </c>
       <c r="R4">
-        <v>16.545030772608</v>
+        <v>5.969456164476</v>
       </c>
       <c r="S4">
-        <v>0.005892536821127557</v>
+        <v>0.004642473561956042</v>
       </c>
       <c r="T4">
-        <v>0.005815461724267923</v>
+        <v>0.005472415735983395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="H5">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="I5">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="J5">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="N5">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="O5">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="P5">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="Q5">
-        <v>23.59642129911</v>
+        <v>19.78379422658625</v>
       </c>
       <c r="R5">
-        <v>94.38568519643999</v>
+        <v>79.13517690634501</v>
       </c>
       <c r="S5">
-        <v>0.05042339899979292</v>
+        <v>0.09231568751472773</v>
       </c>
       <c r="T5">
-        <v>0.03317590321363757</v>
+        <v>0.07254607043590316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="H6">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="I6">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="J6">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="N6">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="O6">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="P6">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="Q6">
-        <v>66.84793551909451</v>
+        <v>5.521282899128499</v>
       </c>
       <c r="R6">
-        <v>401.087613114567</v>
+        <v>33.127697394771</v>
       </c>
       <c r="S6">
-        <v>0.142847937925183</v>
+        <v>0.02576356289186429</v>
       </c>
       <c r="T6">
-        <v>0.1409794695581622</v>
+        <v>0.0303693548499245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="H7">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="I7">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="J7">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="N7">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="O7">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="P7">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="Q7">
-        <v>4.305954485403</v>
+        <v>1.006916617105</v>
       </c>
       <c r="R7">
-        <v>25.835726912418</v>
+        <v>6.04149970263</v>
       </c>
       <c r="S7">
-        <v>0.009201431790871302</v>
+        <v>0.004698502153501797</v>
       </c>
       <c r="T7">
-        <v>0.009081075946171972</v>
+        <v>0.005538460645436965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.248004</v>
       </c>
       <c r="I8">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="J8">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="N8">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="O8">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="P8">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="Q8">
-        <v>17.954135168984</v>
+        <v>21.723472675464</v>
       </c>
       <c r="R8">
-        <v>107.724811013904</v>
+        <v>130.340836052784</v>
       </c>
       <c r="S8">
-        <v>0.03836634843250745</v>
+        <v>0.1013666687125112</v>
       </c>
       <c r="T8">
-        <v>0.03786451193808227</v>
+        <v>0.1194881447494637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.248004</v>
       </c>
       <c r="I9">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="J9">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>15.23399</v>
       </c>
       <c r="O9">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="P9">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="Q9">
         <v>10.57578116177333</v>
@@ -1013,10 +1013,10 @@
         <v>95.18203045595999</v>
       </c>
       <c r="S9">
-        <v>0.02259947923860402</v>
+        <v>0.04934900240937638</v>
       </c>
       <c r="T9">
-        <v>0.03345581296053922</v>
+        <v>0.08725679976507018</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>6.248004</v>
       </c>
       <c r="I10">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="J10">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="N10">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="O10">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="P10">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="Q10">
-        <v>0.551023968768</v>
+        <v>0.299462666384</v>
       </c>
       <c r="R10">
-        <v>4.959215718912</v>
+        <v>2.695163997456</v>
       </c>
       <c r="S10">
-        <v>0.001177487936981624</v>
+        <v>0.001397360972097148</v>
       </c>
       <c r="T10">
-        <v>0.001743129377762679</v>
+        <v>0.002470754029237235</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>6.248004</v>
       </c>
       <c r="I11">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="J11">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="N11">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="O11">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="P11">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="Q11">
-        <v>4.71520200536</v>
+        <v>5.954821618970001</v>
       </c>
       <c r="R11">
-        <v>28.29121203216</v>
+        <v>35.72892971382</v>
       </c>
       <c r="S11">
-        <v>0.01007595639470374</v>
+        <v>0.02778655325094513</v>
       </c>
       <c r="T11">
-        <v>0.009944161662036015</v>
+        <v>0.03275399832221004</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>6.248004</v>
       </c>
       <c r="I12">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="J12">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="N12">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="O12">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="P12">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="Q12">
-        <v>13.358022202532</v>
+        <v>1.661878120830666</v>
       </c>
       <c r="R12">
-        <v>120.222199822788</v>
+        <v>14.956903087476</v>
       </c>
       <c r="S12">
-        <v>0.02854487444635381</v>
+        <v>0.007754701627658373</v>
       </c>
       <c r="T12">
-        <v>0.04225725603570495</v>
+        <v>0.0137115324348256</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>6.248004</v>
       </c>
       <c r="I13">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="J13">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="N13">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="O13">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="P13">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="Q13">
-        <v>0.860445953528</v>
+        <v>0.3030767895866667</v>
       </c>
       <c r="R13">
-        <v>7.744013581752</v>
+        <v>2.72769110628</v>
       </c>
       <c r="S13">
-        <v>0.001838694481782966</v>
+        <v>0.001414225293692686</v>
       </c>
       <c r="T13">
-        <v>0.002721966202169282</v>
+        <v>0.002500572802885961</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="H14">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="I14">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="J14">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="N14">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="O14">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="P14">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="Q14">
-        <v>14.268463637785</v>
+        <v>0.8056802507159999</v>
       </c>
       <c r="R14">
-        <v>57.07385455114</v>
+        <v>4.834081504296</v>
       </c>
       <c r="S14">
-        <v>0.03049040471019248</v>
+        <v>0.003759487457766572</v>
       </c>
       <c r="T14">
-        <v>0.0200610576770943</v>
+        <v>0.004431576841214288</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="H15">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="I15">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="J15">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>15.23399</v>
       </c>
       <c r="O15">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="P15">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="Q15">
-        <v>8.404757317891667</v>
+        <v>0.3922346185266666</v>
       </c>
       <c r="R15">
-        <v>50.42854390735</v>
+        <v>3.53011156674</v>
       </c>
       <c r="S15">
-        <v>0.01796019940330805</v>
+        <v>0.001830256019732886</v>
       </c>
       <c r="T15">
-        <v>0.01772527781509413</v>
+        <v>0.003236180575806394</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="H16">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="I16">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="J16">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="N16">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="O16">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="P16">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="Q16">
-        <v>0.43790833632</v>
+        <v>0.011106472696</v>
       </c>
       <c r="R16">
-        <v>2.62745001792</v>
+        <v>0.09995825426399998</v>
       </c>
       <c r="S16">
-        <v>0.0009357701529270332</v>
+        <v>5.182532991659154E-05</v>
       </c>
       <c r="T16">
-        <v>0.0009235301657424637</v>
+        <v>9.163533636966739E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="H17">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="I17">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="J17">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="N17">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="O17">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="P17">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="Q17">
-        <v>3.74725308265</v>
+        <v>0.220852450555</v>
       </c>
       <c r="R17">
-        <v>14.9890123306</v>
+        <v>1.32511470333</v>
       </c>
       <c r="S17">
-        <v>0.008007537878076098</v>
+        <v>0.001030547809929141</v>
       </c>
       <c r="T17">
-        <v>0.005268532207114408</v>
+        <v>0.001214780434713621</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="H18">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="I18">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="J18">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="N18">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="O18">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="P18">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="Q18">
-        <v>10.6158526866175</v>
+        <v>0.06163574309933331</v>
       </c>
       <c r="R18">
-        <v>63.69511611970501</v>
+        <v>0.5547216878939999</v>
       </c>
       <c r="S18">
-        <v>0.02268510843042659</v>
+        <v>0.0002876064082818711</v>
       </c>
       <c r="T18">
-        <v>0.02238838445862596</v>
+        <v>0.0005085333756176206</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,49 +1594,49 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="H19">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="I19">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="J19">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="N19">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="O19">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="P19">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="Q19">
-        <v>0.6838113718450001</v>
+        <v>0.01124051331333333</v>
       </c>
       <c r="R19">
-        <v>4.10286823107</v>
+        <v>0.10116461982</v>
       </c>
       <c r="S19">
-        <v>0.001461242499702135</v>
+        <v>5.245079395055306E-05</v>
       </c>
       <c r="T19">
-        <v>0.001442129270439631</v>
+        <v>9.274125517870221E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="H20">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="I20">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="J20">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="N20">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="O20">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="P20">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="Q20">
-        <v>52.68605695600333</v>
+        <v>20.099204309007</v>
       </c>
       <c r="R20">
-        <v>316.11634173602</v>
+        <v>80.396817236028</v>
       </c>
       <c r="S20">
-        <v>0.1125852957930774</v>
+        <v>0.09378746276037901</v>
       </c>
       <c r="T20">
-        <v>0.1111126664584402</v>
+        <v>0.07370266162328723</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="H21">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="I21">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="J21">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>15.23399</v>
       </c>
       <c r="O21">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="P21">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="Q21">
-        <v>31.03442206483889</v>
+        <v>9.785027903845</v>
       </c>
       <c r="R21">
-        <v>279.30979858355</v>
+        <v>58.71016742307</v>
       </c>
       <c r="S21">
-        <v>0.06631772787352172</v>
+        <v>0.04565916769799093</v>
       </c>
       <c r="T21">
-        <v>0.09817542591488189</v>
+        <v>0.05382172767767205</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="H22">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="I22">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="J22">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="N22">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="O22">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="P22">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="Q22">
-        <v>1.61696901184</v>
+        <v>0.277071783342</v>
       </c>
       <c r="R22">
-        <v>14.55272110656</v>
+        <v>1.662430700052</v>
       </c>
       <c r="S22">
-        <v>0.003455315220083159</v>
+        <v>0.001292880014682704</v>
       </c>
       <c r="T22">
-        <v>0.005115178916394679</v>
+        <v>0.001524010173168771</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="H23">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="I23">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="J23">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="N23">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="O23">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="P23">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="Q23">
-        <v>13.83666765763333</v>
+        <v>5.509578423828751</v>
       </c>
       <c r="R23">
-        <v>83.02000594580001</v>
+        <v>22.038313695315</v>
       </c>
       <c r="S23">
-        <v>0.02956769610460765</v>
+        <v>0.02570894714566716</v>
       </c>
       <c r="T23">
-        <v>0.02918094705061653</v>
+        <v>0.02020331690824414</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="H24">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="I24">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="J24">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="N24">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="O24">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="P24">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="Q24">
-        <v>39.19885374361834</v>
+        <v>1.5376191636695</v>
       </c>
       <c r="R24">
-        <v>352.7896836925651</v>
+        <v>9.225714982016999</v>
       </c>
       <c r="S24">
-        <v>0.08376437331721757</v>
+        <v>0.007174881046792195</v>
       </c>
       <c r="T24">
-        <v>0.1240030877202956</v>
+        <v>0.008457545620945077</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="H25">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="I25">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="J25">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="N25">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="O25">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="P25">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="Q25">
-        <v>2.524961747723334</v>
+        <v>0.280415677835</v>
       </c>
       <c r="R25">
-        <v>22.72465572951</v>
+        <v>1.68249406701</v>
       </c>
       <c r="S25">
-        <v>0.005395612836827515</v>
+        <v>0.00130848338760311</v>
       </c>
       <c r="T25">
-        <v>0.007987556348999138</v>
+        <v>0.001542402985182561</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="H26">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="I26">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="J26">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="N26">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="O26">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="P26">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="Q26">
-        <v>0.229673701796</v>
+        <v>0.09677856510999999</v>
       </c>
       <c r="R26">
-        <v>1.378042210776</v>
+        <v>0.58067139066</v>
       </c>
       <c r="S26">
-        <v>0.0004907917416212587</v>
+        <v>0.0004515908158209806</v>
       </c>
       <c r="T26">
-        <v>0.0004843721260682874</v>
+        <v>0.0005323224039391337</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="H27">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="I27">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="J27">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>15.23399</v>
       </c>
       <c r="O27">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="P27">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="Q27">
-        <v>0.1352879871933333</v>
+        <v>0.04711534573888888</v>
       </c>
       <c r="R27">
-        <v>1.21759188474</v>
+        <v>0.4240381116499999</v>
       </c>
       <c r="S27">
-        <v>0.0002890980827836642</v>
+        <v>0.0002198509287229956</v>
       </c>
       <c r="T27">
-        <v>0.0004279749671549599</v>
+        <v>0.0003887310285750022</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="H28">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="I28">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="J28">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="N28">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="O28">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="P28">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="Q28">
-        <v>0.007048833791999999</v>
+        <v>0.001334112993333333</v>
       </c>
       <c r="R28">
-        <v>0.06343950412799999</v>
+        <v>0.01200701694</v>
       </c>
       <c r="S28">
-        <v>1.506271456471432E-05</v>
+        <v>6.225274929133224E-06</v>
       </c>
       <c r="T28">
-        <v>2.22985386448312E-05</v>
+        <v>1.100726542489704E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="H29">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="I29">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="J29">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="N29">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="O29">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="P29">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="Q29">
-        <v>0.06031802083999999</v>
+        <v>0.02652886582083333</v>
       </c>
       <c r="R29">
-        <v>0.36190812504</v>
+        <v>0.159173194925</v>
       </c>
       <c r="S29">
-        <v>0.0001288941061502347</v>
+        <v>0.0001237897270456385</v>
       </c>
       <c r="T29">
-        <v>0.0001272081555965538</v>
+        <v>0.0001459198078776384</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="H30">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="I30">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="J30">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="N30">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="O30">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="P30">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="Q30">
-        <v>0.170879097158</v>
+        <v>0.007403704846111109</v>
       </c>
       <c r="R30">
-        <v>1.537911874422</v>
+        <v>0.06663334361499998</v>
       </c>
       <c r="S30">
-        <v>0.0003651530368737399</v>
+        <v>3.454737221773079E-05</v>
       </c>
       <c r="T30">
-        <v>0.0005405651862434393</v>
+        <v>6.108518901770396E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="H31">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="I31">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="J31">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="N31">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="O31">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="P31">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="Q31">
-        <v>0.011007035732</v>
+        <v>0.001350213994444444</v>
       </c>
       <c r="R31">
-        <v>0.09906332158800001</v>
+        <v>0.01215192595</v>
       </c>
       <c r="S31">
-        <v>2.352103090058607E-05</v>
+        <v>6.300405865606987E-06</v>
       </c>
       <c r="T31">
-        <v>3.482005944211656E-05</v>
+        <v>1.114010874006014E-05</v>
       </c>
     </row>
   </sheetData>
